--- a/beh_data_found/SubConds.xlsx
+++ b/beh_data_found/SubConds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">SubID</t>
   </si>
@@ -35,19 +35,10 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">btS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btS1S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btS2S3</t>
+    <t xml:space="preserve">tms_order_letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_order</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_06</t>
@@ -65,13 +56,10 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">SS-SC-CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet-Savory-Sweet</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_07</t>
@@ -89,16 +77,16 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
+    <t xml:space="preserve">SS-CS-SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savory-Sweet-Savory</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_08</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">CS-SS-SC</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_09</t>
@@ -107,9 +95,6 @@
     <t xml:space="preserve">Gingerbread, Garlic </t>
   </si>
   <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_10</t>
   </si>
   <si>
@@ -119,7 +104,7 @@
     <t xml:space="preserve">Pineapple, Potato</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
+    <t xml:space="preserve">CS-SC-SS</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_13</t>
@@ -128,7 +113,7 @@
     <t xml:space="preserve">Yellow, Garlic </t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">SC-SS-CS</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_15</t>
@@ -137,30 +122,21 @@
     <t xml:space="preserve">Gingerbread, Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_16</t>
   </si>
   <si>
     <t xml:space="preserve">Chocolate, Potato</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_17</t>
   </si>
   <si>
+    <t xml:space="preserve">SC-CS-SS</t>
+  </si>
+  <si>
     <t xml:space="preserve">NODEAP_24</t>
   </si>
   <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_26</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t xml:space="preserve">Chocolate, BBQ </t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_35</t>
   </si>
   <si>
@@ -194,30 +167,21 @@
     <t xml:space="preserve">NODEAP_41</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_43</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_44</t>
   </si>
   <si>
+    <t xml:space="preserve">Sweet-Sweet-Savory</t>
+  </si>
+  <si>
     <t xml:space="preserve">NODEAP_45</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_46</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_48</t>
   </si>
   <si>
@@ -230,9 +194,6 @@
     <t xml:space="preserve">NODEAP_53</t>
   </si>
   <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
     <t xml:space="preserve">NODEAP_55</t>
   </si>
   <si>
@@ -255,9 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yellow, BBQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">NODEAP_64</t>
@@ -686,1838 +644,1397 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>321</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
         <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
         <v>321</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
       <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
       </c>
       <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
       <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
         <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
         <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
         <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
         <v>321</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
         <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
         <v>312</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
         <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
         <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F32" t="n">
         <v>23</v>
       </c>
       <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
         <v>24</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
       <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
         <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
         <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
         <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
         <v>23</v>
       </c>
       <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
         <v>24</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
       <c r="I35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
         <v>312</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F36" t="n">
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
         <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
         <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
         <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
         <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
         <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
         <v>26</v>
       </c>
       <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
       <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n">
         <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F41" t="n">
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
         <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
         <v>27</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
         <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
         <v>312</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F44" t="n">
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
         <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C46" t="n">
         <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
       </c>
       <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
         <v>24</v>
       </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
       <c r="I46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
         <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F47" t="n">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
         <v>321</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F48" t="n">
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
         <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
         <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
